--- a/jatekosok.xlsx
+++ b/jatekosok.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalmár Tamás\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1391FF3-F33E-4338-8396-A651223754FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Név</t>
   </si>
@@ -25,47 +31,101 @@
     <t>Védekezés</t>
   </si>
   <si>
-    <t>Gyorsaság</t>
-  </si>
-  <si>
     <t>Összpont</t>
   </si>
   <si>
-    <t>Kovács Pisti</t>
-  </si>
-  <si>
-    <t>Nagy Laci</t>
-  </si>
-  <si>
-    <t>Tóth Jani</t>
-  </si>
-  <si>
-    <t>Kiss Béla</t>
-  </si>
-  <si>
-    <t>Horváth Dani</t>
-  </si>
-  <si>
-    <t>Szabó Gábor</t>
-  </si>
-  <si>
-    <t>Farkas Zoli</t>
-  </si>
-  <si>
-    <t>Molnár Peti</t>
-  </si>
-  <si>
-    <t>Balogh Márk</t>
-  </si>
-  <si>
-    <t>Varga Ádám</t>
+    <t>Kapusposzt</t>
+  </si>
+  <si>
+    <t>Futásteljesítmény</t>
+  </si>
+  <si>
+    <t>Passzpontosság</t>
+  </si>
+  <si>
+    <t>Labdabiztonság</t>
+  </si>
+  <si>
+    <t>Kreativitás</t>
+  </si>
+  <si>
+    <t>Cselezőkészség</t>
+  </si>
+  <si>
+    <t>Fegyelmezettség</t>
+  </si>
+  <si>
+    <t>Csapatszellem</t>
+  </si>
+  <si>
+    <t>Andris</t>
+  </si>
+  <si>
+    <t>Ákos</t>
+  </si>
+  <si>
+    <t>Árpi</t>
+  </si>
+  <si>
+    <t>B István</t>
+  </si>
+  <si>
+    <t>B Peti</t>
+  </si>
+  <si>
+    <t>Csabi</t>
+  </si>
+  <si>
+    <t>Cs Sanyi</t>
+  </si>
+  <si>
+    <t>D Peti</t>
+  </si>
+  <si>
+    <t>E Tomi</t>
+  </si>
+  <si>
+    <t>G Peti</t>
+  </si>
+  <si>
+    <t>Imi</t>
+  </si>
+  <si>
+    <t>Józsi</t>
+  </si>
+  <si>
+    <t>Kornél</t>
+  </si>
+  <si>
+    <t>Krisztián</t>
+  </si>
+  <si>
+    <t>Misi</t>
+  </si>
+  <si>
+    <t>Olasz</t>
+  </si>
+  <si>
+    <t>Öcsi</t>
+  </si>
+  <si>
+    <t>Pisti</t>
+  </si>
+  <si>
+    <t>P Sanyi</t>
+  </si>
+  <si>
+    <t>Qcu</t>
+  </si>
+  <si>
+    <t>Ricsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,17 +184,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +240,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,6 +274,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,9 +309,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,198 +485,799 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O29:O30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>18</v>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/jatekosok.xlsx
+++ b/jatekosok.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalmár Tamás\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1391FF3-F33E-4338-8396-A651223754FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16FF25B-FFED-40D2-BCEE-DA340C49F0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -489,7 +502,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O29:O30"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +592,10 @@
       <c r="K2">
         <v>7</v>
       </c>
+      <c r="L2">
+        <f>B2+C2+D2+E2+F2+G2+H2+I2+J2+K2</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -614,6 +631,10 @@
       <c r="K3">
         <v>7</v>
       </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L22" si="0">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3</f>
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -649,6 +670,10 @@
       <c r="K4">
         <v>8</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -684,6 +709,10 @@
       <c r="K5">
         <v>8</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -719,6 +748,10 @@
       <c r="K6">
         <v>10</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -754,6 +787,10 @@
       <c r="K7">
         <v>6</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -789,6 +826,10 @@
       <c r="K8">
         <v>8</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -824,6 +865,10 @@
       <c r="K9">
         <v>10</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -859,6 +904,10 @@
       <c r="K10">
         <v>8</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -894,6 +943,10 @@
       <c r="K11">
         <v>9</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -929,6 +982,10 @@
       <c r="K12">
         <v>10</v>
       </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -964,6 +1021,10 @@
       <c r="K13">
         <v>9</v>
       </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -999,6 +1060,10 @@
       <c r="K14">
         <v>9</v>
       </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1034,6 +1099,10 @@
       <c r="K15">
         <v>10</v>
       </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1069,8 +1138,12 @@
       <c r="K16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1104,8 +1177,12 @@
       <c r="K17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1139,8 +1216,12 @@
       <c r="K18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1174,8 +1255,12 @@
       <c r="K19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1209,8 +1294,12 @@
       <c r="K20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1244,8 +1333,12 @@
       <c r="K21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1278,6 +1371,10 @@
       </c>
       <c r="K22">
         <v>10</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
